--- a/biology/Médecine/Wilhelm_Blumenhagen/Wilhelm_Blumenhagen.xlsx
+++ b/biology/Médecine/Wilhelm_Blumenhagen/Wilhelm_Blumenhagen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Philipp Georg August Wilhelm Blumenhagen ou Wilhelm Blumenhagen, né le 15 février 1781 à Hanovre et mort le 6 mai 1839 dans la même ville est un médecin et écrivain allemand.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Blumenhagen est l'auteur de nombreuses nouvelles publiées dans des journaux du soir comme l'Abend-Zeitung. Depuis 1894 il existe une rue Blumenhagenstraße dans le quartier de Hannover-Nordstadt (de)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Blumenhagen est l'auteur de nombreuses nouvelles publiées dans des journaux du soir comme l'Abend-Zeitung. Depuis 1894 il existe une rue Blumenhagenstraße dans le quartier de Hannover-Nordstadt (de).
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Analyses</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Franc-maçon et auteur sur la maçonnerie, il expose parfois celle-ci comme un lieu de sagesse en la citant de la sorte :   « comme si toute la Terre devait être le temple de l'ordre, les puissants nous en laisseraient la gouvernance »[2] qui est interprété par l' auteur conspirationniste  Jan van Helsing comme une volonté de création d'un nouvel ordre mondial et d'un gouvernement mondial[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Franc-maçon et auteur sur la maçonnerie, il expose parfois celle-ci comme un lieu de sagesse en la citant de la sorte :   « comme si toute la Terre devait être le temple de l'ordre, les puissants nous en laisseraient la gouvernance » qui est interprété par l' auteur conspirationniste  Jan van Helsing comme une volonté de création d'un nouvel ordre mondial et d'un gouvernement mondial.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>"Novellen u. Erzählungen" (Hannover 1826-27, 4 Bde.)
 "Neuer Novellenkranz" (Braunschweig 1829-30, 2 Bde.)
